--- a/data/historical_estimates/raw/Carretta_Enriquez_2009.xlsx
+++ b/data/historical_estimates/raw/Carretta_Enriquez_2009.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F32CAB-9332-3944-AD89-1820054C4228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FBFD0-58E7-8141-A9C2-8119CA9767B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="3260" windowWidth="28040" windowHeight="17440" xr2:uid="{BBEF5F69-CB2D-7845-8FFD-6D5DE955E9ED}"/>
+    <workbookView xWindow="6780" yWindow="12660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BBEF5F69-CB2D-7845-8FFD-6D5DE955E9ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Estimates" sheetId="1" r:id="rId1"/>
+    <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>California sea lion</t>
   </si>
@@ -84,13 +85,31 @@
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>nvessels</t>
+  </si>
+  <si>
+    <t>sets_tot_est</t>
+  </si>
+  <si>
+    <t>sets_obs</t>
+  </si>
+  <si>
+    <t>obs_perc</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>effort based on 2006 logbook data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +128,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,10 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4A6B6A-45D5-2B46-B8D7-5246488C9A28}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -693,4 +721,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAF31CD-7EBB-A04C-AC91-BB62DEC340C7}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>1387</v>
+      </c>
+      <c r="D2">
+        <v>248</v>
+      </c>
+      <c r="E2">
+        <v>17.8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/historical_estimates/raw/Carretta_Enriquez_2009.xlsx
+++ b/data/historical_estimates/raw/Carretta_Enriquez_2009.xlsx
@@ -1,43 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FBFD0-58E7-8141-A9C2-8119CA9767B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCAF8F-85AC-6045-AF2F-C095AD92E21F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6780" yWindow="12660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BBEF5F69-CB2D-7845-8FFD-6D5DE955E9ED}"/>
+    <workbookView xWindow="16720" yWindow="9440" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{BBEF5F69-CB2D-7845-8FFD-6D5DE955E9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimates" sheetId="1" r:id="rId1"/>
     <sheet name="Effort" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>California sea lion</t>
   </si>
@@ -90,19 +79,22 @@
     <t>nvessels</t>
   </si>
   <si>
-    <t>sets_tot_est</t>
-  </si>
-  <si>
-    <t>sets_obs</t>
-  </si>
-  <si>
-    <t>obs_perc</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>effort based on 2006 logbook data</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>nsets</t>
+  </si>
+  <si>
+    <t>nsets_obs</t>
+  </si>
+  <si>
+    <t>psets_obs</t>
   </si>
 </sst>
 </file>
@@ -725,60 +717,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAF31CD-7EBB-A04C-AC91-BB62DEC340C7}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>2007</v>
+      </c>
+      <c r="D2">
+        <v>58</v>
+      </c>
+      <c r="E2">
+        <v>1387</v>
+      </c>
+      <c r="F2">
+        <v>248</v>
+      </c>
+      <c r="G2">
+        <v>17.8</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2007</v>
-      </c>
-      <c r="B2">
-        <v>58</v>
-      </c>
-      <c r="C2">
-        <v>1387</v>
-      </c>
-      <c r="D2">
-        <v>248</v>
-      </c>
-      <c r="E2">
-        <v>17.8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
